--- a/downloaded_files/EECS100_Lecture-35756.xlsx
+++ b/downloaded_files/EECS100_Lecture-35756.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>alfred hany</x:t>
   </x:si>
   <x:si>
+    <x:t>1230019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امنيه اسماعيل حسن يحيي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omnia ismail hassan yehia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230328</x:t>
   </x:si>
   <x:si>
@@ -328,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Ayman Omran Abdallah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIM</x:t>
   </x:si>
   <x:si>
     <x:t>1230266</x:t>
@@ -488,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -798,7 +816,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="47.760625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1039,7 +1057,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.42050625</x:v>
+        <x:v>45919.9079142361</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1071,7 +1089,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.1612381944</x:v>
+        <x:v>45907.42050625</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1103,7 +1121,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4285091782</x:v>
+        <x:v>45913.1612381944</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1135,7 +1153,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4200421296</x:v>
+        <x:v>45907.4285091782</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1167,7 +1185,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.1602264236</x:v>
+        <x:v>45907.4200421296</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1199,7 +1217,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45913.1602264236</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1249,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.141978669</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,7 +1281,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.1332653935</x:v>
+        <x:v>45913.141978669</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1295,7 +1313,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45913.1332653935</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1345,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1377,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.1438857292</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1409,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4206558218</x:v>
+        <x:v>45913.1438857292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1441,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6795141551</x:v>
+        <x:v>45907.4206558218</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1473,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4206180556</x:v>
+        <x:v>45906.6795141551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.1577131944</x:v>
+        <x:v>45907.4206180556</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1537,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4161412037</x:v>
+        <x:v>45913.1577131944</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1569,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4209761921</x:v>
+        <x:v>45907.4161412037</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1601,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6651809838</x:v>
+        <x:v>45907.4209761921</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1633,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.1400221412</x:v>
+        <x:v>45906.6651809838</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1665,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45913.1400221412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1697,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.1593230324</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1729,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4207461806</x:v>
+        <x:v>45913.1593230324</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1761,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.6007372338</x:v>
+        <x:v>45907.4207461806</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1793,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.1473011921</x:v>
+        <x:v>45909.6007372338</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1825,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4211010764</x:v>
+        <x:v>45913.1473011921</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1857,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.4211010764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6786730324</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45906.6786730324</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4200277778</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.1499515046</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4200277778</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.6678525463</x:v>
+        <x:v>45913.1499515046</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2063,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2080,6 +2098,70 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45909.6678525463</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Lecture-35756.xlsx
+++ b/downloaded_files/EECS100_Lecture-35756.xlsx
@@ -2168,11 +2168,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20426]20426-32-الجيزة الرئيسي Time : Monday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EECS100_Lecture-35756.xlsx
+++ b/downloaded_files/EECS100_Lecture-35756.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -364,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>YASSEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسي رزق لمعي رزق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1230288</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45924.0376082176</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.6678525463</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45909.6678525463</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Lecture-35756.xlsx
+++ b/downloaded_files/EECS100_Lecture-35756.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -364,15 +364,6 @@
   </x:si>
   <x:si>
     <x:t>YASSEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يسي رزق لمعي رزق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1230288</x:t>
@@ -515,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2090,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45924.0376082176</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45909.6678525463</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2145,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.6678525463</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2171,38 +2162,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Lecture-35756.xlsx
+++ b/downloaded_files/EECS100_Lecture-35756.xlsx
@@ -312,15 +312,6 @@
     <x:t>Mohamed Ahmed Abdelhafiz Abdel hameed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد خالد ابواليزيد شلبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Khaled Abouelyazid Shalaby</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220197</x:t>
   </x:si>
   <x:si>
@@ -355,6 +346,15 @@
   </x:si>
   <x:si>
     <x:t>Mennatullah Mohammad Mahmoud Abolfotoh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230310</x:t>
@@ -1889,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45906.6786730324</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6786730324</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45920.1202795139</x:v>
+        <x:v>45907.4200277778</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4200277778</x:v>
+        <x:v>45927.4333722569</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/EECS100_Lecture-35756.xlsx
+++ b/downloaded_files/EECS100_Lecture-35756.xlsx
@@ -318,7 +318,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1230255</x:t>
@@ -815,7 +815,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.760625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.070625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS100_Lecture-35756.xlsx
+++ b/downloaded_files/EECS100_Lecture-35756.xlsx
@@ -228,7 +228,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230058</x:t>
@@ -264,7 +264,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230073</x:t>
@@ -300,7 +300,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230094</x:t>
@@ -336,7 +336,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1230266</x:t>
@@ -381,7 +381,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1230134</x:t>

--- a/downloaded_files/EECS100_Lecture-35756.xlsx
+++ b/downloaded_files/EECS100_Lecture-35756.xlsx
@@ -2168,11 +2168,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:10)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:10)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20503]20503-45-الجيزة الرئيسي Time : Monday(9:10)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
